--- a/Sports.xlsx
+++ b/Sports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swa/Documents/UC_Irvine/Homework/Project_1/Sports_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51146E9-886C-4248-916E-F03BDEB1FCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FD2649-FED0-AD45-AB2E-E23B1D3F1768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="500" windowWidth="17040" windowHeight="21900" activeTab="3" xr2:uid="{4DCE7571-6267-094C-8AE4-217465A7FD40}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="17100" windowHeight="21900" activeTab="3" xr2:uid="{4DCE7571-6267-094C-8AE4-217465A7FD40}"/>
   </bookViews>
   <sheets>
     <sheet name="NFL" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="NBA" sheetId="3" r:id="rId3"/>
     <sheet name="Premier League" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="234">
   <si>
     <t>Manchester City</t>
   </si>
@@ -386,9 +386,6 @@
     <t>Brighton Hove Albion</t>
   </si>
   <si>
-    <t>Hashtag</t>
-  </si>
-  <si>
     <t>@LFC</t>
   </si>
   <si>
@@ -440,20 +437,314 @@
     <t>@OfficialBHAFC </t>
   </si>
   <si>
-    <t>@WolvesAcademy </t>
-  </si>
-  <si>
     <t>@SpursOfficial </t>
   </si>
   <si>
     <t>@ManCity </t>
+  </si>
+  <si>
+    <t>@BuffaloBills</t>
+  </si>
+  <si>
+    <t>@NFL</t>
+  </si>
+  <si>
+    <t>@HoustonTexans</t>
+  </si>
+  <si>
+    <t>@ChicagoBears</t>
+  </si>
+  <si>
+    <t>@Lions</t>
+  </si>
+  <si>
+    <t>@Vikings</t>
+  </si>
+  <si>
+    <t>@Eagles</t>
+  </si>
+  <si>
+    <t>@dallascowboys</t>
+  </si>
+  <si>
+    <t>@MiamiDolphins</t>
+  </si>
+  <si>
+    <t>@Giants</t>
+  </si>
+  <si>
+    <t>@packers</t>
+  </si>
+  <si>
+    <t>@Browns</t>
+  </si>
+  <si>
+    <t>@Colts</t>
+  </si>
+  <si>
+    <t>@Buccaneers</t>
+  </si>
+  <si>
+    <t>@Patriots</t>
+  </si>
+  <si>
+    <t>@Broncos</t>
+  </si>
+  <si>
+    <t>@nyjets</t>
+  </si>
+  <si>
+    <t>@Jaguars</t>
+  </si>
+  <si>
+    <t>@Titans</t>
+  </si>
+  <si>
+    <t>@Seahawks</t>
+  </si>
+  <si>
+    <t>@Commanders</t>
+  </si>
+  <si>
+    <t>@Saints</t>
+  </si>
+  <si>
+    <t>@Raiders</t>
+  </si>
+  <si>
+    <t>@RamsNFL</t>
+  </si>
+  <si>
+    <t>@Ravens</t>
+  </si>
+  <si>
+    <t>@Chiefs</t>
+  </si>
+  <si>
+    <t>@AtlantaFalcons</t>
+  </si>
+  <si>
+    <t>@AZCardinals</t>
+  </si>
+  <si>
+    <t>@Bengals</t>
+  </si>
+  <si>
+    <t>@steelers</t>
+  </si>
+  <si>
+    <t>@49ers</t>
+  </si>
+  <si>
+    <t>@Panthers</t>
+  </si>
+  <si>
+    <t>@Chargers</t>
+  </si>
+  <si>
+    <t>@BlueJays</t>
+  </si>
+  <si>
+    <t>@Mariners</t>
+  </si>
+  <si>
+    <t>@Cubs</t>
+  </si>
+  <si>
+    <t>@RedSox</t>
+  </si>
+  <si>
+    <t>@Dbacks</t>
+  </si>
+  <si>
+    <t>@Mets</t>
+  </si>
+  <si>
+    <t>@Astros</t>
+  </si>
+  <si>
+    <t>@Dodgers</t>
+  </si>
+  <si>
+    <t>@Padres</t>
+  </si>
+  <si>
+    <t>@Pirates</t>
+  </si>
+  <si>
+    <t>@Twins</t>
+  </si>
+  <si>
+    <t>@Brewers</t>
+  </si>
+  <si>
+    <t>@Rockies</t>
+  </si>
+  <si>
+    <t>@Royals</t>
+  </si>
+  <si>
+    <t>@Tigers</t>
+  </si>
+  <si>
+    <t>@Nationals</t>
+  </si>
+  <si>
+    <t>@WhiteSox</t>
+  </si>
+  <si>
+    <t>@SFGiants</t>
+  </si>
+  <si>
+    <t>@Yankees</t>
+  </si>
+  <si>
+    <t>@RaysBaseball</t>
+  </si>
+  <si>
+    <t>@Marlins</t>
+  </si>
+  <si>
+    <t>@Phillies</t>
+  </si>
+  <si>
+    <t>@Reds</t>
+  </si>
+  <si>
+    <t>@Braves</t>
+  </si>
+  <si>
+    <t>@Cardinals</t>
+  </si>
+  <si>
+    <t>@Rangers</t>
+  </si>
+  <si>
+    <t>@Athletics</t>
+  </si>
+  <si>
+    <t>@Angels</t>
+  </si>
+  <si>
+    <t>@Orioles</t>
+  </si>
+  <si>
+    <t>@MiamiHEAT</t>
+  </si>
+  <si>
+    <t>@celtics</t>
+  </si>
+  <si>
+    <t>@Bucks</t>
+  </si>
+  <si>
+    <t>@sixers</t>
+  </si>
+  <si>
+    <t>@Raptors</t>
+  </si>
+  <si>
+    <t>@chicagobulls</t>
+  </si>
+  <si>
+    <t>@BrooklynNets</t>
+  </si>
+  <si>
+    <t>@ATLHawks</t>
+  </si>
+  <si>
+    <t>@cavs</t>
+  </si>
+  <si>
+    <t>@hornets</t>
+  </si>
+  <si>
+    <t>@nyknicks</t>
+  </si>
+  <si>
+    <t>@WashWizards</t>
+  </si>
+  <si>
+    <t>@Pacers</t>
+  </si>
+  <si>
+    <t>@DetroitPistons</t>
+  </si>
+  <si>
+    <t>@OrlandoMagic</t>
+  </si>
+  <si>
+    <t>@Suns</t>
+  </si>
+  <si>
+    <t>@memgrizz</t>
+  </si>
+  <si>
+    <t>@warriors</t>
+  </si>
+  <si>
+    <t>@dallasmavs</t>
+  </si>
+  <si>
+    <t>@utahjazz</t>
+  </si>
+  <si>
+    <t>@nuggets</t>
+  </si>
+  <si>
+    <t>@Timberwolves</t>
+  </si>
+  <si>
+    <t>@PelicansNBA</t>
+  </si>
+  <si>
+    <t>@LAClippers</t>
+  </si>
+  <si>
+    <t>@spurs</t>
+  </si>
+  <si>
+    <t>@Lakers</t>
+  </si>
+  <si>
+    <t>@SacramentoKings</t>
+  </si>
+  <si>
+    <t>@trailblazers</t>
+  </si>
+  <si>
+    <t>@okcthunder</t>
+  </si>
+  <si>
+    <t>@HoustonRockets</t>
+  </si>
+  <si>
+    <t>@NBA</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>@premierleague</t>
+  </si>
+  <si>
+    <t>@MLB</t>
+  </si>
+  <si>
+    <t>@CleGuardians</t>
+  </si>
+  <si>
+    <t>@Wolves</t>
+  </si>
+  <si>
+    <t>Team Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -465,6 +756,21 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -491,9 +797,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -809,178 +1119,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51E3AF3-1DAD-8B41-AE75-85A0555FB2BD}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="B1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>114</v>
       </c>
+      <c r="B33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -989,414 +1441,682 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27531F8B-3BD2-9E48-AA66-F5119870E7BC}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>50</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://twitter.com/BlueJays" xr:uid="{37A37D0E-8979-9541-80B3-1285EC6627B5}"/>
+    <hyperlink ref="B13" r:id="rId2" display="https://twitter.com/Mariners" xr:uid="{9183E6BC-3504-5240-9820-DB1B5A59B360}"/>
+    <hyperlink ref="B25" r:id="rId3" display="https://twitter.com/Cubs" xr:uid="{C21F0F67-0E62-9B4B-A605-8FFCAD42A854}"/>
+    <hyperlink ref="B5" r:id="rId4" display="https://twitter.com/RedSox" xr:uid="{02693897-9901-6C40-BA81-EBCB174C8593}"/>
+    <hyperlink ref="B31" r:id="rId5" display="https://twitter.com/Dbacks" xr:uid="{7292B4BF-72F4-C24A-BE6B-8D6A9406E1F3}"/>
+    <hyperlink ref="B17" r:id="rId6" display="https://twitter.com/Mets" xr:uid="{BD25343B-EC72-5B48-ACDD-60F57AB471C2}"/>
+    <hyperlink ref="B14" r:id="rId7" display="https://twitter.com/Astros" xr:uid="{D56DDD86-90E4-FF4A-8DCE-6F825CBAC5F9}"/>
+    <hyperlink ref="B27" r:id="rId8" display="https://twitter.com/Dodgers" xr:uid="{6D801B57-2F11-814A-A3A9-5426357DD1F7}"/>
+    <hyperlink ref="B28" r:id="rId9" display="https://twitter.com/Padres" xr:uid="{8CB9E211-9269-D243-AD49-BA94B303E273}"/>
+    <hyperlink ref="B24" r:id="rId10" display="https://twitter.com/Pirates" xr:uid="{20B85F94-5436-F141-A4D2-8588CB90FF94}"/>
+    <hyperlink ref="B7" r:id="rId11" display="https://twitter.com/Twins" xr:uid="{F794CFCA-FD30-FF4E-BACE-22F5B8361571}"/>
+    <hyperlink ref="B22" r:id="rId12" display="https://twitter.com/Brewers" xr:uid="{CB6C37C9-045B-7245-A9F8-98F604FEE965}"/>
+    <hyperlink ref="B30" r:id="rId13" display="https://twitter.com/Rockies" xr:uid="{6CB985DF-02D7-594E-9441-48EA7303E759}"/>
+    <hyperlink ref="B10" r:id="rId14" display="https://twitter.com/Royals" xr:uid="{1028E104-B51E-AA48-A9CE-211F9EC8AEBE}"/>
+    <hyperlink ref="B11" r:id="rId15" display="https://twitter.com/Tigers" xr:uid="{0A2BC3ED-C458-3046-BF73-2E3341B35DC4}"/>
+    <hyperlink ref="B21" r:id="rId16" display="https://twitter.com/Nationals" xr:uid="{F60BF857-D764-7948-B26E-A7AD782556F1}"/>
+    <hyperlink ref="B9" r:id="rId17" display="https://twitter.com/WhiteSox" xr:uid="{25E0CC9A-B4A9-9744-B138-67C54CB71E1B}"/>
+    <hyperlink ref="B29" r:id="rId18" display="https://twitter.com/SFGiants" xr:uid="{C310D50C-6867-DD48-8096-6B21A2CA032B}"/>
+    <hyperlink ref="B2" r:id="rId19" display="https://twitter.com/Yankees" xr:uid="{454C7B58-0939-A840-8EEB-539F85824D42}"/>
+    <hyperlink ref="B4" r:id="rId20" display="https://twitter.com/RaysBaseball" xr:uid="{46662346-C8CF-5248-943D-8271C4FC4481}"/>
+    <hyperlink ref="B18" r:id="rId21" display="https://twitter.com/Marlins" xr:uid="{BBF3EBFA-C38F-1244-8491-222FD485F28E}"/>
+    <hyperlink ref="B19" r:id="rId22" display="https://twitter.com/Phillies" xr:uid="{07FAA523-0F61-1B45-A1AE-C88874E9E899}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://twitter.com/Reds" xr:uid="{60B0918D-D364-114A-8665-69EE9D900275}"/>
+    <hyperlink ref="B20" r:id="rId24" display="https://twitter.com/Braves" xr:uid="{7FF64671-4791-9A43-965C-A3772BAB3CC9}"/>
+    <hyperlink ref="B23" r:id="rId25" display="https://twitter.com/Cardinals" xr:uid="{2A0638D0-DBEE-6A4B-B117-4A8824004A86}"/>
+    <hyperlink ref="B16" r:id="rId26" display="https://twitter.com/Rangers" xr:uid="{7779AA78-AEBA-A248-B998-72145A61FCDB}"/>
+    <hyperlink ref="B15" r:id="rId27" display="https://twitter.com/Athletics" xr:uid="{8065F40F-B2EE-E447-9BBD-D914ED0A0226}"/>
+    <hyperlink ref="B12" r:id="rId28" display="https://twitter.com/Angels" xr:uid="{56A58A79-17F0-4143-A9D1-1A9F0EF6278E}"/>
+    <hyperlink ref="B6" r:id="rId29" display="https://twitter.com/Orioles" xr:uid="{481D3C80-FED3-4F44-BDC3-0046DC8B6D2E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D86DF9-8062-2642-A052-89020D69D1A6}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://twitter.com/MiamiHEAT" xr:uid="{D486563B-55AD-6442-8BDC-5A7FB2F1EB0E}"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://twitter.com/celtics" xr:uid="{DF3D0D47-1206-F64F-8F83-B99AEA2F0964}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://twitter.com/Raptors" xr:uid="{DFF84CCC-6C28-3A41-AE89-8D94741C237A}"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://twitter.com/ATLHawks" xr:uid="{51E2B6B6-740F-564E-8C6E-50B91A001E96}"/>
+    <hyperlink ref="B15" r:id="rId5" display="https://twitter.com/DetroitPistons" xr:uid="{DD90986A-F647-6647-93BF-00B428BF6E87}"/>
+    <hyperlink ref="B16" r:id="rId6" display="https://twitter.com/OrlandoMagic" xr:uid="{D1194A50-22D9-D14C-BBE1-F1FDE6D968CD}"/>
+    <hyperlink ref="B17" r:id="rId7" display="https://twitter.com/Suns" xr:uid="{970362C3-E2C6-004E-9457-10533A7ED331}"/>
+    <hyperlink ref="B18" r:id="rId8" display="https://twitter.com/memgrizz" xr:uid="{E39956F1-95B6-974C-92EF-A553BCBCE508}"/>
+    <hyperlink ref="B19" r:id="rId9" display="https://twitter.com/warriors" xr:uid="{037A2B18-D561-D246-BCAA-CAB2E48DDEE3}"/>
+    <hyperlink ref="B20" r:id="rId10" display="https://twitter.com/dallasmavs" xr:uid="{F7306909-D153-304C-AD1D-05A0287EBF0E}"/>
+    <hyperlink ref="B21" r:id="rId11" display="https://twitter.com/utahjazz" xr:uid="{BD7F938C-23C2-6749-9F46-AE76CD461A1A}"/>
+    <hyperlink ref="B22" r:id="rId12" display="https://twitter.com/nuggets" xr:uid="{F6E23502-FD5F-444D-87FC-1695DB60C637}"/>
+    <hyperlink ref="B23" r:id="rId13" display="https://twitter.com/Timberwolves" xr:uid="{CEC4A8E0-0AF4-5C49-8D86-E0BD342CE6DF}"/>
+    <hyperlink ref="B24" r:id="rId14" display="https://twitter.com/PelicansNBA" xr:uid="{E8DD975B-EA8D-B148-8C4E-26C3BA6B1984}"/>
+    <hyperlink ref="B25" r:id="rId15" display="https://twitter.com/LAClippers" xr:uid="{D29E9691-C691-924E-9418-0E0982074D9A}"/>
+    <hyperlink ref="B26" r:id="rId16" display="https://twitter.com/spurs" xr:uid="{1ECC4DBE-8EFC-A340-BFB1-CD95043362FE}"/>
+    <hyperlink ref="B27" r:id="rId17" display="https://twitter.com/Lakers" xr:uid="{D87A9A99-AB17-A74B-B9C0-5E858668F69E}"/>
+    <hyperlink ref="B29" r:id="rId18" display="https://twitter.com/trailblazers" xr:uid="{C872D261-210C-AE4B-979F-56C668159D87}"/>
+    <hyperlink ref="B32" r:id="rId19" display="https://twitter.com/NBA" xr:uid="{BF31C296-02A6-A549-AD3E-B8CCFAA0A48E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB9FEBD-952A-1840-8648-C5B64BE0597B}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" t="s">
-        <v>116</v>
+        <v>233</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>136</v>
+      <c r="B2" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>117</v>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>125</v>
+      <c r="B4" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>122</v>
+      <c r="B5" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>135</v>
+      <c r="B6" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>118</v>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>119</v>
+      <c r="B8" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,104 +2124,118 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>133</v>
+      <c r="B10" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>121</v>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>132</v>
+      <c r="B12" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>131</v>
+      <c r="B13" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>130</v>
+      <c r="B14" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>123</v>
+      <c r="B15" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>129</v>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>124</v>
+      <c r="B17" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>128</v>
+      <c r="B18" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>126</v>
+      <c r="B19" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>120</v>
+      <c r="B20" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="B21" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1519,9 +2253,8 @@
     <hyperlink ref="B13" r:id="rId12" display="https://twitter.com/CPFC" xr:uid="{D2F55D4A-0A7A-7244-9284-D22BFD8487F6}"/>
     <hyperlink ref="B12" r:id="rId13" display="https://twitter.com/LCFC" xr:uid="{360E8856-F318-1645-8377-3DA484DB93F8}"/>
     <hyperlink ref="B10" r:id="rId14" display="https://twitter.com/OfficialBHAFC" xr:uid="{2D87D393-A848-5A4D-B3E1-F9BFDE056A29}"/>
-    <hyperlink ref="B9" r:id="rId15" display="https://twitter.com/WolvesAcademy" xr:uid="{F26FC4B5-62EE-1840-92B2-E7AA4AD45676}"/>
-    <hyperlink ref="B6" r:id="rId16" display="https://twitter.com/SpursOfficial" xr:uid="{FD8FB189-728E-8348-B54F-4A4D458186D6}"/>
-    <hyperlink ref="B2" r:id="rId17" display="https://twitter.com/ManCity" xr:uid="{3B4D8EB1-95C2-0B44-8423-FE3BB6F53300}"/>
+    <hyperlink ref="B6" r:id="rId15" display="https://twitter.com/SpursOfficial" xr:uid="{FD8FB189-728E-8348-B54F-4A4D458186D6}"/>
+    <hyperlink ref="B2" r:id="rId16" display="https://twitter.com/ManCity" xr:uid="{3B4D8EB1-95C2-0B44-8423-FE3BB6F53300}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
